--- a/biokart_website_automation/biokart_data_megha.xlsx
+++ b/biokart_website_automation/biokart_data_megha.xlsx
@@ -7,31 +7,418 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="Traceibility matrix" sheetId="2" r:id="rId2"/>
+    <sheet name="Test_case" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>megha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="107">
+  <si>
+    <t xml:space="preserve">SI No </t>
+  </si>
+  <si>
+    <t>When user click on Servicespage Services page should be displayed</t>
+  </si>
+  <si>
+    <t>SCENARIO NO</t>
+  </si>
+  <si>
+    <t>Biokart_SC_01</t>
+  </si>
+  <si>
+    <t>TEST SCENARIOS(Biokart)</t>
+  </si>
+  <si>
+    <t>SC_01</t>
+  </si>
+  <si>
+    <t>SC_05</t>
+  </si>
+  <si>
+    <t>SC_04</t>
+  </si>
+  <si>
+    <t>SC_03</t>
+  </si>
+  <si>
+    <t>SC_02</t>
+  </si>
+  <si>
+    <t>TRACEBILITY MATRIC</t>
+  </si>
+  <si>
+    <t>SI NO</t>
+  </si>
+  <si>
+    <t>TEST SCENARIO</t>
+  </si>
+  <si>
+    <t>TEST CASE</t>
+  </si>
+  <si>
+    <t>Biocart_SC_01</t>
+  </si>
+  <si>
+    <t>Biocart_SC_02</t>
+  </si>
+  <si>
+    <t>BiocartSC_03</t>
+  </si>
+  <si>
+    <t>Biocart_SC_04</t>
+  </si>
+  <si>
+    <t>Biocart_SC_05</t>
+  </si>
+  <si>
+    <t>Biocart_TC_01</t>
+  </si>
+  <si>
+    <t>Biocart_TC_02</t>
+  </si>
+  <si>
+    <t>Biocart_TC_03</t>
+  </si>
+  <si>
+    <t>Biocart_TC_04</t>
+  </si>
+  <si>
+    <t>Biocart_TC_05</t>
+  </si>
+  <si>
+    <t>S.No:</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Scenario Number</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Test Case No:</t>
+  </si>
+  <si>
+    <t>Requirement No:</t>
+  </si>
+  <si>
+    <t>Req_01</t>
+  </si>
+  <si>
+    <t>Build No:</t>
+  </si>
+  <si>
+    <t>Module Name/Page Name:</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Pre_Condition:</t>
+  </si>
+  <si>
+    <t>Test Data:</t>
+  </si>
+  <si>
+    <t>http://localhost:5173/</t>
+  </si>
+  <si>
+    <t>Severity:</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Test Case Type:</t>
+  </si>
+  <si>
+    <t>Post Condition:</t>
+  </si>
+  <si>
+    <t>Home Page should be displayed</t>
+  </si>
+  <si>
+    <t>Brief Description:</t>
+  </si>
+  <si>
+    <t>Test Case Execution Hour:</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Description/Action</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments/Remark</t>
+  </si>
+  <si>
+    <t>Open the browser enter the CRM Application url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Home" Page should displayed </t>
+  </si>
+  <si>
+    <t>Verified "Home" Page is displayed with all contents</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Author:</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>Reviewed by:</t>
+  </si>
+  <si>
+    <t>Approved by:</t>
+  </si>
+  <si>
+    <t>Approved Date:</t>
+  </si>
+  <si>
+    <t>Biokart_TC_01</t>
+  </si>
+  <si>
+    <t>When user enters biokart appication url in to browser,Home page should be displayed with all the content.</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL ,Home page should be present</t>
+  </si>
+  <si>
+    <t>https://biokart.com/</t>
+  </si>
+  <si>
+    <t>Major/critical</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>when the user open the Biokart Application by using "Biokat Application"url, it should be open</t>
+  </si>
+  <si>
+    <t>Open the browser enter the Biokart Application url</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Biokart_SC_02</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL,Homepage should be present</t>
+  </si>
+  <si>
+    <t>https://biokart.com/about/</t>
+  </si>
+  <si>
+    <t>Biokart_SC_03</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL,Home page should be present</t>
+  </si>
+  <si>
+    <t>click on About link/tab</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>https://biokart.com/services-2/</t>
+  </si>
+  <si>
+    <t>Services Page should be displayed</t>
+  </si>
+  <si>
+    <t>User clicks on Services link, Services should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Services link/tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Services" Page should displayed </t>
+  </si>
+  <si>
+    <t>Verified "Services" Page is displayed with all contents</t>
+  </si>
+  <si>
+    <t>Biokart_SC_04</t>
+  </si>
+  <si>
+    <t>https://biokart.com/contact/</t>
+  </si>
+  <si>
+    <t>Click on Contact link/tab</t>
+  </si>
+  <si>
+    <t>Contact  Page should be displayed</t>
+  </si>
+  <si>
+    <t>Biokart_SC_05</t>
+  </si>
+  <si>
+    <t>Chrome Browser,URL,home page should be present</t>
+  </si>
+  <si>
+    <t>https://biokart.com/payment-policy/</t>
+  </si>
+  <si>
+    <t>user clicks on Payment policy link, Terms &amp; Conditions for Online Payments should be displayed</t>
+  </si>
+  <si>
+    <t>User clicks on  Payment policy link, Terms &amp; Conditions for Online Payments should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Contact us" Page should displayed </t>
+  </si>
+  <si>
+    <t>Verified " Contact us" Page is displayed with all contents</t>
+  </si>
+  <si>
+    <t>About us Page should be displayed</t>
+  </si>
+  <si>
+    <t>User clicks on About link, About us page should be displayed</t>
+  </si>
+  <si>
+    <t>"Abou ust' page should be displayed</t>
+  </si>
+  <si>
+    <t>Verified "About us" Page is displayed with all contents</t>
+  </si>
+  <si>
+    <t>When user click on Services page Services page should be displayed</t>
+  </si>
+  <si>
+    <t>When user click on Payment policypage Terms &amp; Conditions for Online Payments should be displayed</t>
+  </si>
+  <si>
+    <t>When user click on Payment policypage Terms &amp; Conditions for Online Payments page should be displayed</t>
+  </si>
+  <si>
+    <t>When user click on Contactpage Contact us page should be displayed</t>
+  </si>
+  <si>
+    <t>When user click on Aboutpage About us page should be displayed.</t>
+  </si>
+  <si>
+    <t>User clicks on  Contact  link, Contact us should be displayed</t>
+  </si>
+  <si>
+    <t>Click on payment policy link/tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Terms &amp; Conditions for Online Payments" Page should displayed </t>
+  </si>
+  <si>
+    <t>Verified "Terms &amp; Conditions for Online Payments" Page is displayed with all contents</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,14 +438,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -357,44 +784,2349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="4" max="4" width="81.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.21875" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="32" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+      <c r="B48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" s="8" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+      <c r="B53" s="7">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="B57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="60" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+      <c r="B72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80" s="7">
+        <v>2</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="87" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" s="14">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+      <c r="B103" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A104"/>
+      <c r="B104" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" s="8" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A106"/>
+      <c r="B106" s="7">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A107"/>
+      <c r="B107" s="7">
+        <v>2</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+      <c r="B109" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111"/>
+      <c r="B111" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112"/>
+      <c r="B112" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="17"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="114" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+      <c r="B115" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117"/>
+      <c r="B117" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118"/>
+      <c r="B118" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120"/>
+      <c r="B120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="14">
+        <v>1</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121"/>
+      <c r="B121" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+      <c r="B122" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124"/>
+      <c r="B124" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125"/>
+      <c r="B125" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+      <c r="B126" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A127"/>
+      <c r="B127" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128"/>
+      <c r="B128" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130"/>
+      <c r="B130" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A131"/>
+      <c r="B131" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A133"/>
+      <c r="B133" s="7">
+        <v>1</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A134"/>
+      <c r="B134" s="7">
+        <v>2</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136"/>
+      <c r="B136" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137"/>
+      <c r="B137" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138"/>
+      <c r="B138" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139"/>
+      <c r="B139" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="17"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A143"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A154"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A155"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A156"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A157"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+    </row>
+    <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A158"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+    </row>
+    <row r="159" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A160"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A161"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A162"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A163"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A166"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="D79" r:id="rId2"/>
+    <hyperlink ref="C96" r:id="rId3"/>
+    <hyperlink ref="D106" r:id="rId4"/>
+    <hyperlink ref="D133" r:id="rId5"/>
+    <hyperlink ref="D24" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>